--- a/src/test/resources/FlipkartData.xlsx
+++ b/src/test/resources/FlipkartData.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB209846-AFED-4C17-B047-A6A824EC5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BackUp\MyEclipse\com.crm.TekPyramid\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09174A77-D841-4411-96FB-CBAF22A8B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1519CE41-AAE1-42EB-86F6-97B7CFCB7578}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1519CE41-AAE1-42EB-86F6-97B7CFCB7578}"/>
   </bookViews>
   <sheets>
     <sheet name="MobileSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="AmazonProducts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
   <si>
     <t>Product Brand</t>
   </si>
@@ -42,12 +47,436 @@
   </si>
   <si>
     <t>mobile</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G Prime Edition, Orchid Pink, 8GB+128GB | India Debut SD 4 Gen 2 AE | 108MP Pro Grade Camera | 6.79in Largest Display in Segment</t>
+  </si>
+  <si>
+    <t>11,699</t>
+  </si>
+  <si>
+    <t>Redmi A4 5G (Starry Black, 4GB RAM, 64GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging</t>
+  </si>
+  <si>
+    <t>7,998</t>
+  </si>
+  <si>
+    <t>Redmi A4 5G (Sparkle Purple, 4GB RAM, 64GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging</t>
+  </si>
+  <si>
+    <t>Redmi A4 5G (Starry Black, 4GB RAM, 128GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging</t>
+  </si>
+  <si>
+    <t>8,798</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G Prime Edition, Hawaiian Blue, 8GB+128GB | India Debut SD 4 Gen 2 AE | 108MP Pro Grade Camera | 6.79in Largest Display in Segment</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G Prime Edition, Black Diamond, 8GB+128GB | India Debut SD 4 Gen 2 AE | 108MP Pro Grade Camera | 6.79in Largest Display in Segment</t>
+  </si>
+  <si>
+    <t>Redmi A4 5G (Sparkle Purple, 4GB RAM, 128GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging</t>
+  </si>
+  <si>
+    <t>Redmi A4 5G (Starry Black, 6GB RAM, 128GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging</t>
+  </si>
+  <si>
+    <t>9,799</t>
+  </si>
+  <si>
+    <t>Redmi A4 5G (Sparkle Purple, 6GB RAM, 128GB Storage) | Global Debut SD 4s Gen 2 | Segment Largest 6.88in 120Hz | 50MP Dual Camera | 18W Fast Charging</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G, Hawaiian Blue, 6GB+128GB | India Debut SD 4 Gen 2 AE | 108MP Pro Grade Camera | 6.79in Largest Display in Segment</t>
+  </si>
+  <si>
+    <t>11,749</t>
+  </si>
+  <si>
+    <t>Redmi A3X Midnight Black 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>6,983</t>
+  </si>
+  <si>
+    <t>Redmi A5 Just Black, 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>7,498</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Stargaze Black, 6GB RAM, 128GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>11,498</t>
+  </si>
+  <si>
+    <t>Redmi A5 Pondicherry Blue, 3GB RAM 64GB ROM</t>
+  </si>
+  <si>
+    <t>6,498</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Starlight Blue, 6GB RAM, 128GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Ivy Green, 8GB RAM 256GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>19,999</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Champagne Gold 12GB RAM 512GB Storage | 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP68 IP69 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>32,999</t>
+  </si>
+  <si>
+    <t>Redmi A3X Ocean Green 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>6,948</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G (Spectre Blue, 12GB RAM+ 512GB Storage) | Snapdragon 7s Gen 3 Processor | AMOLED Display | Dual Nano-SIM | 6200mAh Battery</t>
+  </si>
+  <si>
+    <t>32,180</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Stardust Purple, 6GB RAM, 128GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Titan Black, 6GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>16,999</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Titan Black, 8GB RAM 256GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi A5 Pondicherry Blue, 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>Redmi A3X (Midnight Black, 3GB RAM, 64GB Storage) | Premium Halo Design | 90Hz Display | Powerful Octa Core Processor</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Redmi A3X (Olive Green, 3GB RAM, 64GB Storage) | Premium Halo Design | 90Hz Display | Powerful Octa Core Processor</t>
+  </si>
+  <si>
+    <t>6,136</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Mystique White, 8GB RAM 256GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Titan Black 12GB RAM 512GB Storage| 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP 68 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>Redmi A3X (Ocean Green, 3GB RAM, 64GB Storage) | Premium Halo Design | 90Hz Display | Powerful Octa Core Processor</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Mystique White, 6GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi 9 Power (Mighty Black 4GB RAM 64GB Storage) - 6000mAh Battery |FHD+ Screen | 48MP Quad Camera | Alexa Hands-Free Capable</t>
+  </si>
+  <si>
+    <t>8,399</t>
+  </si>
+  <si>
+    <t>Redmi 9 Power (Blazing Blue, 4GB RAM, 64GB Storage) - 6000mAh Battery |FHD+ Screen| 48MP Quad Camera | Alexa Hands-Free Capable</t>
+  </si>
+  <si>
+    <t>7,789</t>
+  </si>
+  <si>
+    <t>Redmi A5 Just Black, 3GB RAM 64GB ROM</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G Orchid Pink 6GB RAM 128GB ROM (Without Offer)</t>
+  </si>
+  <si>
+    <t>11,399</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 (Neptune Blue, 4GB RAM, 64GB Storage) | Snapdragon 665 Processor | 48 MP Quad Camera</t>
+  </si>
+  <si>
+    <t>8,850</t>
+  </si>
+  <si>
+    <t>Redmi A5 Jaisalmer Gold, 3GB RAM 64GB ROM</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Champagne Gold 8GB RAM 128GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra |IP68 IP69</t>
+  </si>
+  <si>
+    <t>22,999</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Champagne Gold 8GB RAM 256GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra | IP68 IP69</t>
+  </si>
+  <si>
+    <t>24,998</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Ivy Green, 8GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>17,999</t>
+  </si>
+  <si>
+    <t>Redmi 13C 5G (Startrail Silver, 4GB RAM, 128GB Storage) | MediaTek Dimensity 6100+ 5G | 90Hz Display</t>
+  </si>
+  <si>
+    <t>10,999</t>
+  </si>
+  <si>
+    <t>Redmi 12 (Pastel Blue,4GB RAM, 128GB Storage)</t>
+  </si>
+  <si>
+    <t>Redmi A3X Olive Green 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>6,940</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Stardust Purple, 4GB RAM, 64GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88â€) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>9,498</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Spectre Blue 12GB RAM 512GB Storage| 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP 68 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Starlight Blue, 4GB RAM, 128GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>10,498</t>
+  </si>
+  <si>
+    <t>Redmi 10 (Pacific Blue, 4GB RAM, 64GB Storage)</t>
+  </si>
+  <si>
+    <t>7,999</t>
+  </si>
+  <si>
+    <t>Redmi 13C 5G (Startrail Green, 4GB RAM, 128GB Storage) | MediaTek Dimensity 6100+ 5G | 90Hz Display</t>
+  </si>
+  <si>
+    <t>10,720</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 (Moonlight White, 4GB RAM, 64GB Storage) | Snapdragon 665 Processor | 48 MP Quad Camera</t>
+  </si>
+  <si>
+    <t>8,810</t>
+  </si>
+  <si>
+    <t>Redmi 13C 5G (Startrail Green,6GB RAM, 128GB Storage) | MediaTek Dimensity 6100+ 5G | 90Hz Display</t>
+  </si>
+  <si>
+    <t>11,690</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G Hawaiian Blue 8GB RAM 128GB ROM (Without Offer)</t>
+  </si>
+  <si>
+    <t>13,000</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Starlight Blue, 4GB RAM, 64GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>Redmi 13C 5G (Startrail Silver, 6GB RAM, 128GB Storage) | MediaTek Dimensity 6100+ 5G | 90Hz Display</t>
+  </si>
+  <si>
+    <t>11,511</t>
+  </si>
+  <si>
+    <t>Redmi A5 Jaisalmer Gold, 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Titan Black 8GB RAM 256GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra</t>
+  </si>
+  <si>
+    <t>24,999</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Stardust Purple, 4GB RAM, 128GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Titan Black 8GB RAM 256GB Storage| 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP 68 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>29,999</t>
+  </si>
+  <si>
+    <t>Redmi 12 5G Pastel Blue 6GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>Redmi 14C 5G (Stargaze Black, 4GB RAM, 128GB Storage) | Superfast 4nm Snapdragon 4 Gen 2 | 120Hz 17.47cm (6.88”) Display | 5160mAh Battery | 50MP Dual Camera | Premium Starlight Design</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G, Hawaiian Blue, 6GB+128GB (Without Offer)</t>
+  </si>
+  <si>
+    <t>11,500</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Ivy Green 8GB RAM 256GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra</t>
+  </si>
+  <si>
+    <t>Redmi 12 5G Jade Black 4GB RAM 128GB ROM</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Champagne Gold 8GB RAM 256GB Storage| 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP68 IP69 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G AI Smartphone (Phantom Purple, 12GB RAM + 512GB Storage) | Snapdragon 7s Gen 3 Processor | AMOLED Display | Dual Nano-SIM | 6200mAh Battery</t>
+  </si>
+  <si>
+    <t>33,080</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Y2 (Black, 3GB RAM, 32GB Storage)</t>
+  </si>
+  <si>
+    <t>6,999</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Ivy Green, 6GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 Pro (Shadow Black, 6GB RAM, 128GB Storage with Helio G90T Processor)</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Phantom Purple 8GB RAM 256GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Phantom Purple 12GB RAM 512GB Storage | 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP 68 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>Redmi 10 (Caribbean Green, 6GB RAM, 128GB Storage)</t>
+  </si>
+  <si>
+    <t>9,715</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Titan Black 8GB RAM 128GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra</t>
+  </si>
+  <si>
+    <t>Redmi 9A Sport (Metallic Blue, 2GB RAM, 32GB Storage) | 2GHz Octa-core Helio G25 Processor | 5000 mAh Battery</t>
+  </si>
+  <si>
+    <t>7,499</t>
+  </si>
+  <si>
+    <t>Redmi Note 13 Pro (Scarlet Red, 8GB RAM, 128GB Storage) | 1.5K AMOLED | 200MP Hi-Res Camera | Flagship 4nm SD 7s Gen 2 | 67W TurboCharge</t>
+  </si>
+  <si>
+    <t>28,999</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Phantom Purple 8GB RAM 128GB Storage|50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra</t>
+  </si>
+  <si>
+    <t>Redmi Note 13 5G (Stealth Black, 6GB RAM, 128GB Storage) | 5G Ready | 120Hz Bezel-Less AMOLED | 7.mm Slimmest Note Ever | 108MP Pro-Grade Camera</t>
+  </si>
+  <si>
+    <t>Redmi Note 11T 5G (Matte Black, 6GB RAM, 64GB ROM)| Dimensity 810 5G | 33W Pro Fast Charging| Charger Included</t>
+  </si>
+  <si>
+    <t>11,499</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Phantom Purple, 8GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi 11 Prime 5G (Chrome Silver, 4GB RAM 64GB ROM) | Prime Design | MTK Dimensity 700 | 50 MP Dual Cam | 5000mAh | 7 Band 5G</t>
+  </si>
+  <si>
+    <t>9,999</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Champagne Gold 8GB RAM 128GB Storage| 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP68 IP69 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>27,999</t>
+  </si>
+  <si>
+    <t>Redmi 10A (Slate Grey, 3GB RAM, 32GB Storage) | 2 Ghz Octa Core Helio G25 | 5000 mAh Battery | Finger Print Sensor | Upto 5GB RAM with RAM Booster</t>
+  </si>
+  <si>
+    <t>Redmi 13C 5G (Starlight Black, 6GB RAM, 128GB Storage) | MediaTek Dimensity 6100+ 5G | 90Hz Display</t>
+  </si>
+  <si>
+    <t>11,980</t>
+  </si>
+  <si>
+    <t>Redmi Poco C3 (Matte Black, 3 RAM / 32 Storage)</t>
+  </si>
+  <si>
+    <t>5,990</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Mystique White, 8GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 5G (Titan Black, 8GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G AI Smartphone (Titan Black, 12GB RAM + 512GB Storage) | Snapdragon 7s Gen 3 Processor | AMOLED Display | Dual Nano-SIM | 6200mAh Battery</t>
+  </si>
+  <si>
+    <t>32,399</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro 5G Ivy Green 8GB RAM 128GB Storage |50 MP Sony Camera Setup|Corning Gorilla Glass Victus 2 | 1.5K 3D Curved AMOLED | Mediatek Dimensity 7300- Ultra</t>
+  </si>
+  <si>
+    <t>Redmi Note 14 Pro+ 5G Spectre Blue 8GB RAM 256GB Storage| 50 MP Triple Camera with Telephoto | Corning Gorilla Glass Victus 2 | IP 68 | SD 7s Gen 3</t>
+  </si>
+  <si>
+    <t>Redmi 13 5G Dimond Black 8GB RAM 128GB ROM (Without Offer)</t>
+  </si>
+  <si>
+    <t>13,177</t>
+  </si>
+  <si>
+    <t>Redmi 7A (Matte Gold, 2GB RAM, 16GB Storage)</t>
+  </si>
+  <si>
+    <t>5,998</t>
+  </si>
+  <si>
+    <t>Redmi Mi Note 6 Pro (Black, 4GB RAM, 64GB Storage)</t>
+  </si>
+  <si>
+    <t>8,490</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,196 +836,926 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37A8C4E-79C1-410B-A940-68492A903CEE}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" activeCellId="1" sqref="E11 L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="13.5546875"/>
+    <col min="3" max="3" customWidth="true" width="14.109375"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875"/>
+    <col min="5" max="5" customWidth="true" width="11.77734375"/>
+    <col min="6" max="6" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="G2" t="s">
+      <c r="E2" s="2"/>
+      <c r="H2" t="s" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="2"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04930C05-E353-4B5F-89E3-C085A86B8801}">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>